--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Tarek Abdalla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1162125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايكل توفيق حنا سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael Tawfik Hanna Soliman</x:t>
   </x:si>
   <x:si>
     <x:t>1220272</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4149297106</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.9039522338</x:v>
+        <x:v>45909.4149297106</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45909.9039522338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4172926736</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4172926736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45909.4154523958</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
   </x:si>
   <x:si>
+    <x:t>1210260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد ماهر قداح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Maher Kaddah</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220133</x:t>
   </x:si>
   <x:si>
@@ -150,6 +159,15 @@
     <x:t>Karim Tarek Abdalla</x:t>
   </x:si>
   <x:si>
+    <x:t>1220138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لوجينا شوقي أحمد شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lujina Shawki Ahmed Shehata</x:t>
+  </x:si>
+  <x:si>
     <x:t>1162125</x:t>
   </x:si>
   <x:si>
@@ -220,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور نادر محمد الحسينى سيد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
   </x:si>
   <x:si>
     <x:t>1220289</x:t>
@@ -362,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1105,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.414800463</x:v>
+        <x:v>45923.5822278935</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4150289699</x:v>
+        <x:v>45909.414800463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45909.4150289699</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4149297106</x:v>
+        <x:v>45923.4748199421</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.9039522338</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45909.4149297106</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45909.9039522338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4172926736</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4172926736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45923.5776475347</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1533,102 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45909.4151179745</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45909.4148844907</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45909.4154523958</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Yara Aly Mohamed Senousy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف شريف امين محمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Sherif Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1220300</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45923.9119398495</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45909.4154523958</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Hazem Mohamed Sayed Kotb Rabea</x:t>
   </x:si>
   <x:si>
+    <x:t>1210137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد هشام فهمي محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220127</x:t>
   </x:si>
   <x:si>
@@ -141,15 +150,6 @@
     <x:t>Omar Ahmed Maher Kaddah</x:t>
   </x:si>
   <x:si>
-    <x:t>4220133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Michael Tawfik Hanna Soliman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد سيد محمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
   </x:si>
   <x:si>
     <x:t>1220272</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1109,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.415049456</x:v>
+        <x:v>45927.5026321412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45923.5822278935</x:v>
+        <x:v>45909.415049456</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.414800463</x:v>
+        <x:v>45923.5822278935</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4150289699</x:v>
+        <x:v>45927.4614357292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4149297106</x:v>
+        <x:v>45927.4144324884</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.9039522338</x:v>
+        <x:v>45909.4149297106</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45909.9039522338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4172926736</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4172926736</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.5776475347</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45923.5776475347</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45923.9119398495</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45923.9119398495</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45909.4154523958</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Maher Kaddah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح مصيلحي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1230226</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1214,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4614357292</x:v>
+        <x:v>45928.4187569444</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45923.4748199421</x:v>
+        <x:v>45927.4614357292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45923.4748199421</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4144324884</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4149297106</x:v>
+        <x:v>45927.4144324884</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.9039522338</x:v>
+        <x:v>45909.4149297106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45909.9039522338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4172926736</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4172926736</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45923.5776475347</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45923.5776475347</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.9119398495</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45923.9119398495</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45909.4154523958</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -1255,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4614357292</x:v>
+        <x:v>45928.8522539352</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Salah Moselhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
   </x:si>
   <x:si>
     <x:t>1220138</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1255,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.8522539352</x:v>
+        <x:v>45923.4748199421</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45923.4748199421</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45927.4144324884</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4144324884</x:v>
+        <x:v>45909.4149297106</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4149297106</x:v>
+        <x:v>45909.9039522338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.9039522338</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45909.4172926736</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4172926736</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45923.5776475347</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45923.5776475347</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45923.9119398495</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45923.9119398495</x:v>
+        <x:v>45909.4154523958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45909.4154523958</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -192,7 +192,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230167</x:t>
@@ -246,7 +246,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210319</x:t>
@@ -716,7 +716,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.310625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.420625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.780625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS402_Tutorial-35874.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35874.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210346</x:t>
@@ -201,7 +201,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>1220142</x:t>
